--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>CAPEX</t>
   </si>
@@ -86,26 +86,26 @@
     <t>Emissions [gCO2]</t>
   </si>
   <si>
-    <t xml:space="preserve">Yearly Savings </t>
+    <t>Base case( 26% El Price Increase)</t>
+  </si>
+  <si>
+    <t>Cost optimised (26% El Price increase)</t>
+  </si>
+  <si>
+    <t>Percentage saved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,8 +130,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,20 +409,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -435,8 +437,14 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -444,27 +452,39 @@
         <v>1234.8975150000001</v>
       </c>
       <c r="C2">
-        <v>246.788003</v>
+        <v>206.92817299999999</v>
       </c>
       <c r="D2">
         <v>22.586089000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1234.8975150000001</v>
+      </c>
+      <c r="F2">
+        <v>492.09977900000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>6172.8716329999997</v>
+        <v>5974.0216309999996</v>
       </c>
       <c r="C3">
-        <v>7356.1435030000002</v>
+        <v>7127.4758250000004</v>
       </c>
       <c r="D3">
-        <v>7441.84094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7240.0422619999999</v>
+      </c>
+      <c r="E3">
+        <v>7467.5270380000002</v>
+      </c>
+      <c r="F3">
+        <v>8500.4486099999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -472,62 +492,85 @@
         <v>728.68364199999996</v>
       </c>
       <c r="C4">
-        <v>266.58049599999998</v>
+        <v>285.654923</v>
       </c>
       <c r="D4">
-        <f>624804.706163/1000</f>
-        <v>624.80470616299999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>437.37164899999999</v>
+      </c>
+      <c r="E4">
+        <v>728.68364199999996</v>
+      </c>
+      <c r="F4">
+        <v>433.16256499999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <f>SUM(B2,B3,B4)</f>
-        <v>8136.4527899999994</v>
+        <v>7937.6027880000001</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:D5" si="0">SUM(C2,C3,C4)</f>
-        <v>7869.5120019999995</v>
+        <f t="shared" ref="C5:F5" si="0">SUM(C2,C3,C4)</f>
+        <v>7620.0589210000007</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D5" si="1">SUM(D2,D3,D4)</f>
+        <v>7700</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5" si="2">SUM(E2,E3,E4)</f>
+        <v>9431.1081950000007</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>8089.2317351630008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9425.7109540000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <f>C5/B5</f>
-        <v>0.96719199448584281</v>
-      </c>
-      <c r="D6">
-        <f>D5/B5</f>
-        <v>0.99419635852923094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <f>1-C5/B5</f>
+        <v>4.0005008499550909E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f>1-D5/B5</f>
+        <v>2.9933821878717071E-2</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <f>1-F5/E5</f>
+        <v>5.722806788349688E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="C7">
-        <f>(1-C6)*B5*1000</f>
-        <v>266940.78799999965</v>
+        <f>(C6)*B5*1000</f>
+        <v>317543.86699999904</v>
       </c>
       <c r="D7">
-        <f>(1-D6)*B5*1000</f>
-        <v>47221.054836998628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <f>(D6)*B5*1000</f>
+        <v>237602.78800000003</v>
+      </c>
+      <c r="F7">
+        <f>(F6)*E5*1000</f>
+        <v>5397.2410000006375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -535,13 +578,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>17764.224999999999</v>
+        <v>16629.474999999999</v>
       </c>
       <c r="D9">
-        <v>6079.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10366.525</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>13792.438625999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -552,10 +601,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10550.275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8532.4500000000007</v>
+      </c>
+      <c r="E10">
+        <v>8532.4500000000007</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -563,13 +618,19 @@
         <v>10388.35</v>
       </c>
       <c r="C11">
-        <v>7235.7749999999996</v>
+        <v>8370.5249999999996</v>
       </c>
       <c r="D11">
-        <v>8370.5249999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6101.0249999999996</v>
+      </c>
+      <c r="E11">
+        <v>10388.35</v>
+      </c>
+      <c r="F11">
+        <v>7008.3613740000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -582,8 +643,14 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -596,8 +663,14 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>6079.2</v>
+      </c>
+      <c r="F13">
+        <v>4199.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -610,43 +683,55 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1">
-        <v>20380322.9522199</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15796019.3043079</v>
-      </c>
-      <c r="D16" s="1">
-        <v>12134257.415991301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>19978087.658158999</v>
+      </c>
+      <c r="C16">
+        <v>15175253.677967001</v>
+      </c>
+      <c r="D16">
+        <v>11627276.879651001</v>
+      </c>
+      <c r="E16">
+        <v>19978087.658158999</v>
+      </c>
+      <c r="F16">
+        <v>17546053.419459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <f>C16/B16</f>
-        <v>0.77506226674329215</v>
-      </c>
-      <c r="D17">
-        <f>D16/B16</f>
-        <v>0.59539083087344269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
+      <c r="C17" s="2">
+        <f>1-C16/B16</f>
+        <v>0.24040509093624551</v>
+      </c>
+      <c r="D17" s="2">
+        <f>1-D16/B16</f>
+        <v>0.41799850523218363</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <f>1-F16/E16</f>
+        <v>0.12173508697699409</v>
       </c>
     </row>
   </sheetData>

--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27880" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>CAPEX</t>
   </si>
@@ -93,16 +93,26 @@
   </si>
   <si>
     <t>Percentage saved</t>
+  </si>
+  <si>
+    <t>BaseCase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,10 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +745,147 @@
         <v>0.12173508697699409</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B26:D31">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>